--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt1-Fzd3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt1-Fzd3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2767476666666667</v>
+        <v>0.3251496666666667</v>
       </c>
       <c r="N2">
-        <v>0.8302430000000001</v>
+        <v>0.975449</v>
       </c>
       <c r="O2">
-        <v>0.1013437297028556</v>
+        <v>0.07121046526627427</v>
       </c>
       <c r="P2">
-        <v>0.1013437297028556</v>
+        <v>0.07121046526627427</v>
       </c>
       <c r="Q2">
-        <v>0.116859192979</v>
+        <v>0.137297373097</v>
       </c>
       <c r="R2">
-        <v>1.051732736811</v>
+        <v>1.235676357873</v>
       </c>
       <c r="S2">
-        <v>0.1013437297028556</v>
+        <v>0.07121046526627427</v>
       </c>
       <c r="T2">
-        <v>0.1013437297028556</v>
+        <v>0.07121046526627427</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +623,10 @@
         <v>3.023459</v>
       </c>
       <c r="O3">
-        <v>0.3690589522147927</v>
+        <v>0.2207208394324094</v>
       </c>
       <c r="P3">
-        <v>0.3690589522147927</v>
+        <v>0.2207208394324094</v>
       </c>
       <c r="Q3">
         <v>0.425560924627</v>
@@ -632,10 +635,10 @@
         <v>3.830048321643</v>
       </c>
       <c r="S3">
-        <v>0.3690589522147927</v>
+        <v>0.2207208394324094</v>
       </c>
       <c r="T3">
-        <v>0.3690589522147927</v>
+        <v>0.2207208394324094</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +679,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.446215</v>
+        <v>3.226895</v>
       </c>
       <c r="N4">
-        <v>4.338645</v>
+        <v>9.680685</v>
       </c>
       <c r="O4">
-        <v>0.5295973180823518</v>
+        <v>0.7067166842615477</v>
       </c>
       <c r="P4">
-        <v>0.5295973180823517</v>
+        <v>0.7067166842615475</v>
       </c>
       <c r="Q4">
-        <v>0.610677299685</v>
+        <v>1.362585455805</v>
       </c>
       <c r="R4">
-        <v>5.496095697165</v>
+        <v>12.263269102245</v>
       </c>
       <c r="S4">
-        <v>0.5295973180823518</v>
+        <v>0.7067166842615477</v>
       </c>
       <c r="T4">
-        <v>0.5295973180823517</v>
+        <v>0.7067166842615475</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.422259</v>
+      </c>
+      <c r="H5">
+        <v>1.266777</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.006173333333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.01852</v>
+      </c>
+      <c r="O5">
+        <v>0.001352011039768762</v>
+      </c>
+      <c r="P5">
+        <v>0.001352011039768762</v>
+      </c>
+      <c r="Q5">
+        <v>0.00260674556</v>
+      </c>
+      <c r="R5">
+        <v>0.02346071004</v>
+      </c>
+      <c r="S5">
+        <v>0.001352011039768762</v>
+      </c>
+      <c r="T5">
+        <v>0.001352011039768762</v>
       </c>
     </row>
   </sheetData>
